--- a/xlsx/瓜地馬拉_intext.xlsx
+++ b/xlsx/瓜地馬拉_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="822">
   <si>
     <t>瓜地馬拉</t>
   </si>
@@ -29,7 +29,7 @@
     <t>危地馬拉國旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_瓜地馬拉</t>
+    <t>体育运动_体育运动_南非_瓜地馬拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A6%AC%E6%8B%89%E5%9C%8B%E5%BE%BD</t>
@@ -432,12 +432,6 @@
   </si>
   <si>
     <t>納瓦特爾語</t>
-  </si>
-  <si>
-    <t>https://nah.wikipedia.org/wiki/Cuauht%C4%93mall%C4%81n</t>
-  </si>
-  <si>
-    <t>nah-Cuauhtēmallān</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/K%27iche%27_people</t>
@@ -2835,7 +2829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I426"/>
+  <dimension ref="A1:I425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3556,7 +3550,7 @@
         <v>48</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="s">
         <v>4</v>
@@ -5006,7 +5000,7 @@
         <v>142</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" t="s">
         <v>4</v>
@@ -5035,7 +5029,7 @@
         <v>144</v>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H76" t="s">
         <v>4</v>
@@ -5151,7 +5145,7 @@
         <v>152</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
@@ -5180,7 +5174,7 @@
         <v>154</v>
       </c>
       <c r="G81" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
@@ -5209,7 +5203,7 @@
         <v>156</v>
       </c>
       <c r="G82" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
@@ -5267,7 +5261,7 @@
         <v>160</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H84" t="s">
         <v>4</v>
@@ -5296,7 +5290,7 @@
         <v>162</v>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H85" t="s">
         <v>4</v>
@@ -5412,7 +5406,7 @@
         <v>170</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H89" t="s">
         <v>4</v>
@@ -5441,7 +5435,7 @@
         <v>172</v>
       </c>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
@@ -5702,7 +5696,7 @@
         <v>190</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
@@ -5731,7 +5725,7 @@
         <v>192</v>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -5760,7 +5754,7 @@
         <v>194</v>
       </c>
       <c r="G101" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -5789,7 +5783,7 @@
         <v>196</v>
       </c>
       <c r="G102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
@@ -5818,7 +5812,7 @@
         <v>198</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H103" t="s">
         <v>4</v>
@@ -5847,7 +5841,7 @@
         <v>200</v>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H104" t="s">
         <v>4</v>
@@ -5876,7 +5870,7 @@
         <v>202</v>
       </c>
       <c r="G105" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H105" t="s">
         <v>4</v>
@@ -5934,7 +5928,7 @@
         <v>206</v>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H107" t="s">
         <v>4</v>
@@ -5963,7 +5957,7 @@
         <v>208</v>
       </c>
       <c r="G108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H108" t="s">
         <v>4</v>
@@ -6166,7 +6160,7 @@
         <v>222</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -6224,7 +6218,7 @@
         <v>226</v>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
@@ -6276,10 +6270,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6305,10 +6299,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="F120" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6601,7 +6595,7 @@
         <v>250</v>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H130" t="s">
         <v>4</v>
@@ -6630,7 +6624,7 @@
         <v>252</v>
       </c>
       <c r="G131" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -6717,7 +6711,7 @@
         <v>258</v>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H134" t="s">
         <v>4</v>
@@ -6746,7 +6740,7 @@
         <v>260</v>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -6804,7 +6798,7 @@
         <v>264</v>
       </c>
       <c r="G137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H137" t="s">
         <v>4</v>
@@ -6862,7 +6856,7 @@
         <v>268</v>
       </c>
       <c r="G139" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -6891,7 +6885,7 @@
         <v>270</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -6920,7 +6914,7 @@
         <v>272</v>
       </c>
       <c r="G141" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -6949,7 +6943,7 @@
         <v>274</v>
       </c>
       <c r="G142" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H142" t="s">
         <v>4</v>
@@ -6978,7 +6972,7 @@
         <v>276</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -7007,7 +7001,7 @@
         <v>278</v>
       </c>
       <c r="G144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H144" t="s">
         <v>4</v>
@@ -7065,7 +7059,7 @@
         <v>282</v>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H146" t="s">
         <v>4</v>
@@ -7146,10 +7140,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7175,10 +7169,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>241</v>
+        <v>287</v>
       </c>
       <c r="F150" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7210,7 +7204,7 @@
         <v>290</v>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H151" t="s">
         <v>4</v>
@@ -7233,13 +7227,13 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>225</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>226</v>
       </c>
       <c r="G152" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -7262,13 +7256,13 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>227</v>
+        <v>291</v>
       </c>
       <c r="F153" t="s">
-        <v>228</v>
+        <v>292</v>
       </c>
       <c r="G153" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -7297,7 +7291,7 @@
         <v>294</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -7326,7 +7320,7 @@
         <v>296</v>
       </c>
       <c r="G155" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -7384,7 +7378,7 @@
         <v>300</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
@@ -7407,13 +7401,13 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>189</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>190</v>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -7436,13 +7430,13 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>191</v>
+        <v>301</v>
       </c>
       <c r="F159" t="s">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="G159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -7471,7 +7465,7 @@
         <v>304</v>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -7558,7 +7552,7 @@
         <v>310</v>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
@@ -7587,7 +7581,7 @@
         <v>312</v>
       </c>
       <c r="G164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H164" t="s">
         <v>4</v>
@@ -7674,7 +7668,7 @@
         <v>318</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H167" t="s">
         <v>4</v>
@@ -7703,7 +7697,7 @@
         <v>320</v>
       </c>
       <c r="G168" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H168" t="s">
         <v>4</v>
@@ -7761,7 +7755,7 @@
         <v>324</v>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H170" t="s">
         <v>4</v>
@@ -7790,7 +7784,7 @@
         <v>326</v>
       </c>
       <c r="G171" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H171" t="s">
         <v>4</v>
@@ -7819,7 +7813,7 @@
         <v>328</v>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H172" t="s">
         <v>4</v>
@@ -7877,7 +7871,7 @@
         <v>332</v>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H174" t="s">
         <v>4</v>
@@ -7906,7 +7900,7 @@
         <v>334</v>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -7987,10 +7981,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
+        <v>233</v>
       </c>
       <c r="F178" t="s">
-        <v>340</v>
+        <v>234</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8016,10 +8010,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>235</v>
+        <v>339</v>
       </c>
       <c r="F179" t="s">
-        <v>236</v>
+        <v>340</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8051,7 +8045,7 @@
         <v>342</v>
       </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H180" t="s">
         <v>4</v>
@@ -8080,7 +8074,7 @@
         <v>344</v>
       </c>
       <c r="G181" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
@@ -8109,7 +8103,7 @@
         <v>346</v>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H182" t="s">
         <v>4</v>
@@ -8132,13 +8126,13 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>347</v>
+        <v>213</v>
       </c>
       <c r="F183" t="s">
-        <v>348</v>
+        <v>214</v>
       </c>
       <c r="G183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -8161,13 +8155,13 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>215</v>
+        <v>347</v>
       </c>
       <c r="F184" t="s">
-        <v>216</v>
+        <v>348</v>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -8196,7 +8190,7 @@
         <v>350</v>
       </c>
       <c r="G185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -8283,7 +8277,7 @@
         <v>356</v>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -8312,7 +8306,7 @@
         <v>358</v>
       </c>
       <c r="G189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H189" t="s">
         <v>4</v>
@@ -8370,7 +8364,7 @@
         <v>362</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -8399,7 +8393,7 @@
         <v>364</v>
       </c>
       <c r="G192" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H192" t="s">
         <v>4</v>
@@ -8428,7 +8422,7 @@
         <v>366</v>
       </c>
       <c r="G193" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H193" t="s">
         <v>4</v>
@@ -8544,7 +8538,7 @@
         <v>374</v>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -8573,7 +8567,7 @@
         <v>376</v>
       </c>
       <c r="G198" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -8689,7 +8683,7 @@
         <v>384</v>
       </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H202" t="s">
         <v>4</v>
@@ -8776,7 +8770,7 @@
         <v>390</v>
       </c>
       <c r="G205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H205" t="s">
         <v>4</v>
@@ -8805,7 +8799,7 @@
         <v>392</v>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H206" t="s">
         <v>4</v>
@@ -8834,7 +8828,7 @@
         <v>394</v>
       </c>
       <c r="G207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H207" t="s">
         <v>4</v>
@@ -8863,7 +8857,7 @@
         <v>396</v>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H208" t="s">
         <v>4</v>
@@ -8892,7 +8886,7 @@
         <v>398</v>
       </c>
       <c r="G209" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H209" t="s">
         <v>4</v>
@@ -8921,7 +8915,7 @@
         <v>400</v>
       </c>
       <c r="G210" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H210" t="s">
         <v>4</v>
@@ -9037,7 +9031,7 @@
         <v>408</v>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -9066,7 +9060,7 @@
         <v>410</v>
       </c>
       <c r="G215" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H215" t="s">
         <v>4</v>
@@ -9095,7 +9089,7 @@
         <v>412</v>
       </c>
       <c r="G216" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H216" t="s">
         <v>4</v>
@@ -9124,7 +9118,7 @@
         <v>414</v>
       </c>
       <c r="G217" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -9153,7 +9147,7 @@
         <v>416</v>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H218" t="s">
         <v>4</v>
@@ -9182,7 +9176,7 @@
         <v>418</v>
       </c>
       <c r="G219" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H219" t="s">
         <v>4</v>
@@ -9205,13 +9199,13 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>419</v>
+        <v>123</v>
       </c>
       <c r="F220" t="s">
-        <v>420</v>
+        <v>124</v>
       </c>
       <c r="G220" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H220" t="s">
         <v>4</v>
@@ -9234,13 +9228,13 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>123</v>
+        <v>419</v>
       </c>
       <c r="F221" t="s">
-        <v>124</v>
+        <v>420</v>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H221" t="s">
         <v>4</v>
@@ -9327,7 +9321,7 @@
         <v>426</v>
       </c>
       <c r="G224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H224" t="s">
         <v>4</v>
@@ -9414,7 +9408,7 @@
         <v>432</v>
       </c>
       <c r="G227" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H227" t="s">
         <v>4</v>
@@ -9443,7 +9437,7 @@
         <v>434</v>
       </c>
       <c r="G228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -9472,7 +9466,7 @@
         <v>436</v>
       </c>
       <c r="G229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H229" t="s">
         <v>4</v>
@@ -9501,7 +9495,7 @@
         <v>438</v>
       </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H230" t="s">
         <v>4</v>
@@ -9530,7 +9524,7 @@
         <v>440</v>
       </c>
       <c r="G231" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H231" t="s">
         <v>4</v>
@@ -9559,7 +9553,7 @@
         <v>442</v>
       </c>
       <c r="G232" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H232" t="s">
         <v>4</v>
@@ -9588,7 +9582,7 @@
         <v>444</v>
       </c>
       <c r="G233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H233" t="s">
         <v>4</v>
@@ -9617,7 +9611,7 @@
         <v>446</v>
       </c>
       <c r="G234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H234" t="s">
         <v>4</v>
@@ -9646,7 +9640,7 @@
         <v>448</v>
       </c>
       <c r="G235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H235" t="s">
         <v>4</v>
@@ -9675,7 +9669,7 @@
         <v>450</v>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H236" t="s">
         <v>4</v>
@@ -9733,7 +9727,7 @@
         <v>454</v>
       </c>
       <c r="G238" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H238" t="s">
         <v>4</v>
@@ -9762,7 +9756,7 @@
         <v>456</v>
       </c>
       <c r="G239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H239" t="s">
         <v>4</v>
@@ -9791,7 +9785,7 @@
         <v>458</v>
       </c>
       <c r="G240" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H240" t="s">
         <v>4</v>
@@ -9849,7 +9843,7 @@
         <v>462</v>
       </c>
       <c r="G242" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H242" t="s">
         <v>4</v>
@@ -9878,7 +9872,7 @@
         <v>464</v>
       </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H243" t="s">
         <v>4</v>
@@ -9907,7 +9901,7 @@
         <v>466</v>
       </c>
       <c r="G244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H244" t="s">
         <v>4</v>
@@ -9936,7 +9930,7 @@
         <v>468</v>
       </c>
       <c r="G245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H245" t="s">
         <v>4</v>
@@ -9965,7 +9959,7 @@
         <v>470</v>
       </c>
       <c r="G246" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H246" t="s">
         <v>4</v>
@@ -9994,7 +9988,7 @@
         <v>472</v>
       </c>
       <c r="G247" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H247" t="s">
         <v>4</v>
@@ -10023,7 +10017,7 @@
         <v>474</v>
       </c>
       <c r="G248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H248" t="s">
         <v>4</v>
@@ -10052,7 +10046,7 @@
         <v>476</v>
       </c>
       <c r="G249" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H249" t="s">
         <v>4</v>
@@ -10081,7 +10075,7 @@
         <v>478</v>
       </c>
       <c r="G250" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H250" t="s">
         <v>4</v>
@@ -10748,7 +10742,7 @@
         <v>524</v>
       </c>
       <c r="G273" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -10777,7 +10771,7 @@
         <v>526</v>
       </c>
       <c r="G274" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H274" t="s">
         <v>4</v>
@@ -10806,7 +10800,7 @@
         <v>528</v>
       </c>
       <c r="G275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H275" t="s">
         <v>4</v>
@@ -10835,7 +10829,7 @@
         <v>530</v>
       </c>
       <c r="G276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H276" t="s">
         <v>4</v>
@@ -10864,7 +10858,7 @@
         <v>532</v>
       </c>
       <c r="G277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H277" t="s">
         <v>4</v>
@@ -11009,7 +11003,7 @@
         <v>542</v>
       </c>
       <c r="G282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H282" t="s">
         <v>4</v>
@@ -11038,7 +11032,7 @@
         <v>544</v>
       </c>
       <c r="G283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
@@ -11444,7 +11438,7 @@
         <v>572</v>
       </c>
       <c r="G297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H297" t="s">
         <v>4</v>
@@ -11473,7 +11467,7 @@
         <v>574</v>
       </c>
       <c r="G298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -11531,7 +11525,7 @@
         <v>578</v>
       </c>
       <c r="G300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H300" t="s">
         <v>4</v>
@@ -11560,7 +11554,7 @@
         <v>580</v>
       </c>
       <c r="G301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H301" t="s">
         <v>4</v>
@@ -11618,7 +11612,7 @@
         <v>584</v>
       </c>
       <c r="G303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H303" t="s">
         <v>4</v>
@@ -11647,7 +11641,7 @@
         <v>586</v>
       </c>
       <c r="G304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H304" t="s">
         <v>4</v>
@@ -11676,7 +11670,7 @@
         <v>588</v>
       </c>
       <c r="G305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H305" t="s">
         <v>4</v>
@@ -11705,7 +11699,7 @@
         <v>590</v>
       </c>
       <c r="G306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H306" t="s">
         <v>4</v>
@@ -11734,7 +11728,7 @@
         <v>592</v>
       </c>
       <c r="G307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H307" t="s">
         <v>4</v>
@@ -11763,7 +11757,7 @@
         <v>594</v>
       </c>
       <c r="G308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H308" t="s">
         <v>4</v>
@@ -11995,7 +11989,7 @@
         <v>610</v>
       </c>
       <c r="G316" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H316" t="s">
         <v>4</v>
@@ -12024,7 +12018,7 @@
         <v>612</v>
       </c>
       <c r="G317" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H317" t="s">
         <v>4</v>
@@ -12053,7 +12047,7 @@
         <v>614</v>
       </c>
       <c r="G318" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H318" t="s">
         <v>4</v>
@@ -12082,7 +12076,7 @@
         <v>616</v>
       </c>
       <c r="G319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H319" t="s">
         <v>4</v>
@@ -12662,7 +12656,7 @@
         <v>656</v>
       </c>
       <c r="G339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H339" t="s">
         <v>4</v>
@@ -12691,7 +12685,7 @@
         <v>658</v>
       </c>
       <c r="G340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H340" t="s">
         <v>4</v>
@@ -12952,7 +12946,7 @@
         <v>676</v>
       </c>
       <c r="G349" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H349" t="s">
         <v>4</v>
@@ -13010,7 +13004,7 @@
         <v>680</v>
       </c>
       <c r="G351" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H351" t="s">
         <v>4</v>
@@ -13062,10 +13056,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>683</v>
+        <v>443</v>
       </c>
       <c r="F353" t="s">
-        <v>684</v>
+        <v>444</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13091,10 +13085,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F354" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13120,13 +13114,13 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>449</v>
+        <v>683</v>
       </c>
       <c r="F355" t="s">
-        <v>450</v>
+        <v>684</v>
       </c>
       <c r="G355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H355" t="s">
         <v>4</v>
@@ -13155,7 +13149,7 @@
         <v>686</v>
       </c>
       <c r="G356" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H356" t="s">
         <v>4</v>
@@ -13184,7 +13178,7 @@
         <v>688</v>
       </c>
       <c r="G357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H357" t="s">
         <v>4</v>
@@ -13213,7 +13207,7 @@
         <v>690</v>
       </c>
       <c r="G358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H358" t="s">
         <v>4</v>
@@ -13410,10 +13404,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>703</v>
+        <v>471</v>
       </c>
       <c r="F365" t="s">
-        <v>704</v>
+        <v>472</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13439,10 +13433,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>473</v>
+        <v>703</v>
       </c>
       <c r="F366" t="s">
-        <v>474</v>
+        <v>704</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13561,7 +13555,7 @@
         <v>712</v>
       </c>
       <c r="G370" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H370" t="s">
         <v>4</v>
@@ -13590,7 +13584,7 @@
         <v>714</v>
       </c>
       <c r="G371" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H371" t="s">
         <v>4</v>
@@ -14373,7 +14367,7 @@
         <v>768</v>
       </c>
       <c r="G398" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H398" t="s">
         <v>4</v>
@@ -14402,7 +14396,7 @@
         <v>770</v>
       </c>
       <c r="G399" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="H399" t="s">
         <v>4</v>
@@ -14431,7 +14425,7 @@
         <v>772</v>
       </c>
       <c r="G400" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H400" t="s">
         <v>4</v>
@@ -14489,7 +14483,7 @@
         <v>776</v>
       </c>
       <c r="G402" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H402" t="s">
         <v>4</v>
@@ -14518,7 +14512,7 @@
         <v>778</v>
       </c>
       <c r="G403" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H403" t="s">
         <v>4</v>
@@ -14924,7 +14918,7 @@
         <v>806</v>
       </c>
       <c r="G417" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H417" t="s">
         <v>4</v>
@@ -14953,7 +14947,7 @@
         <v>808</v>
       </c>
       <c r="G418" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H418" t="s">
         <v>4</v>
@@ -15127,7 +15121,7 @@
         <v>820</v>
       </c>
       <c r="G424" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H424" t="s">
         <v>4</v>
@@ -15150,47 +15144,18 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
+        <v>819</v>
+      </c>
+      <c r="F425" t="s">
         <v>821</v>
       </c>
-      <c r="F425" t="s">
-        <v>822</v>
-      </c>
       <c r="G425" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H425" t="s">
         <v>4</v>
       </c>
       <c r="I425" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="426" spans="1:9">
-      <c r="A426" s="1" t="n">
-        <v>424</v>
-      </c>
-      <c r="B426" t="s">
-        <v>0</v>
-      </c>
-      <c r="C426" t="s">
-        <v>1</v>
-      </c>
-      <c r="D426" t="n">
-        <v>425</v>
-      </c>
-      <c r="E426" t="s">
-        <v>821</v>
-      </c>
-      <c r="F426" t="s">
-        <v>823</v>
-      </c>
-      <c r="G426" t="n">
-        <v>1</v>
-      </c>
-      <c r="H426" t="s">
-        <v>4</v>
-      </c>
-      <c r="I426" t="n">
         <v>3</v>
       </c>
     </row>
